--- a/calc/tho_axis_res.xlsx
+++ b/calc/tho_axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87D8509-ECB6-4978-A897-FE95C08535BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06EAAF-6314-49D4-B575-3ED079E4892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -422,9 +422,9 @@
       <selection activeCell="C13" sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -446,221 +446,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.46899999999999997</v>
+        <v>-0.47</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.93700000000000006</v>
+        <v>-0.93899999999999995</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.5149999999999999</v>
+        <v>-1.5189999999999999</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.391</v>
+        <v>-2.403</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.0279999999999996</v>
+        <v>-5.1150000000000002</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-9.0779999999999994</v>
+        <v>-9.2289999999999992</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-12.819000000000001</v>
+        <v>-12.999000000000001</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-16.457999999999998</v>
+        <v>-16.7</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-20.213000000000001</v>
+        <v>-20.513999999999999</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-24.748999999999999</v>
+        <v>-25.233000000000001</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-30.722999999999999</v>
+        <v>-31.599</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-38.840000000000003</v>
+        <v>-40.226999999999997</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-48.335999999999999</v>
+        <v>-50.292000000000002</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-58.755000000000003</v>
+        <v>-61.374000000000002</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-69.959999999999994</v>
+        <v>-73.269000000000005</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-81.790999999999997</v>
+        <v>-85.772999999999996</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-94.15</v>
+        <v>-98.866</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-106.70099999999999</v>
+        <v>-112.125</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-119.492</v>
+        <v>-125.619</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-132.44499999999999</v>
+        <v>-139.285</v>
       </c>
       <c r="C22">
         <v>20</v>

--- a/calc/tho_axis_res.xlsx
+++ b/calc/tho_axis_res.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06EAAF-6314-49D4-B575-3ED079E4892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE23BF6-7968-4EED-AA8F-38783273ACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
+    <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -422,9 +423,9 @@
       <selection activeCell="C13" sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -446,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -457,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -468,194 +469,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.5189999999999999</v>
+        <v>-1.49</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.403</v>
+        <v>-2.2530000000000001</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.1150000000000002</v>
+        <v>-4.1520000000000001</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-9.2289999999999992</v>
+        <v>-6.8440000000000003</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-12.999000000000001</v>
+        <v>-9.5399999999999991</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-16.7</v>
+        <v>-12.609</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-20.513999999999999</v>
+        <v>-16.097999999999999</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-25.233000000000001</v>
+        <v>-20.971</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-31.599</v>
+        <v>-28.122</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-40.226999999999997</v>
+        <v>-37.472000000000001</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-50.292000000000002</v>
+        <v>-48.073</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-61.374000000000002</v>
+        <v>-59.463999999999999</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-73.269000000000005</v>
+        <v>-71.733999999999995</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-85.772999999999996</v>
+        <v>-84.503</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-98.866</v>
+        <v>-97.724999999999994</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-112.125</v>
+        <v>-111.105</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-125.619</v>
+        <v>-124.64100000000001</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-138.37</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D5F48-4F61-4D0C-8F4B-10B85D7CC1D7}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.47</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.93899999999999995</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-1.5189999999999999</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-2.403</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-5.1150000000000002</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-9.2289999999999992</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-12.999000000000001</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-16.7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-20.513999999999999</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-25.233000000000001</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-31.599</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-40.226999999999997</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-50.292000000000002</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-61.374000000000002</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-73.269000000000005</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-85.772999999999996</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-98.866</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-112.125</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-125.619</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
